--- a/Modulo 13- Ferramentas de análise/aula-solver.xlsx
+++ b/Modulo 13- Ferramentas de análise/aula-solver.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\Curso-Excel\Modulo 13- Ferramentas de análise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1A09AE-5FFE-4CB9-8327-4061BBBA5654}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74B959E-B973-4B94-904D-8611B0898864}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{4430C8C5-1BA6-4289-86B7-BC19EE26AF37}"/>
   </bookViews>
@@ -19,20 +19,23 @@
     <definedName name="solver_adj" localSheetId="0" hidden="1">Solver!$C$6:$C$9</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Solver!$C$6:$C$9</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Solver!$C$6</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Solver!$C$6:$C$9</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Solver!$F$11:$H$11</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Solver!$F$11:$H$11</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Solver!$C$7</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Solver!$C$8</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Solver!$C$9</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Solver!$F$11:$H$11</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">Solver!$F$11:$H$11</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">6</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Solver!$B$12</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
@@ -41,10 +44,16 @@
     <definedName name="solver_rel2" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Solver!$E$6:$E$9</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">número inteiro</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Solver!$F$12:$H$12</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Solver!$F$12:$H$12</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Solver!$E$6</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">"número inteiro"</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Solver!$E$7</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Solver!$E$8</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">Solver!$E$9</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">Solver!$F$12:$H$12</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">Solver!$F$12:$H$12</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
@@ -723,7 +732,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="15">
-        <v>100</v>
+        <v>17100</v>
       </c>
       <c r="D6" s="9">
         <v>0.15</v>
@@ -746,7 +755,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D7" s="10">
         <v>0.25</v>
@@ -769,7 +778,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="16">
-        <v>100</v>
+        <v>4150</v>
       </c>
       <c r="D8" s="10">
         <v>0.35</v>
@@ -792,7 +801,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="17">
-        <v>100</v>
+        <v>1675</v>
       </c>
       <c r="D9" s="11">
         <v>0.4</v>
@@ -823,22 +832,22 @@
       </c>
       <c r="F11" s="25">
         <f>SUMPRODUCT($C$6:$C$9,F6:F9)</f>
-        <v>7</v>
+        <v>304.25</v>
       </c>
       <c r="G11" s="25">
         <f t="shared" ref="G11:H11" si="0">SUMPRODUCT($C$6:$C$9,G6:G9)</f>
-        <v>17</v>
+        <v>650</v>
       </c>
       <c r="H11" s="25">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>783.25</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="24">
         <f>SUMPRODUCT(C6:C9,D6:D9)</f>
-        <v>115</v>
+        <v>4687.5</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23" t="s">
